--- a/个人抵押客户模板/附件表/客户信息登记.xlsx
+++ b/个人抵押客户模板/附件表/客户信息登记.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18827"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="198" documentId="A4DDFEE83A72FACF784599E0B8EC59F9AC18308E" xr6:coauthVersionLast="25" xr6:coauthVersionMax="25" xr10:uidLastSave="{B4758C84-BEFE-42C6-AC47-1C3170306A30}"/>
+  <xr:revisionPtr revIDLastSave="208" documentId="A4DDFEE83A72FACF784599E0B8EC59F9AC18308E" xr6:coauthVersionLast="26" xr6:coauthVersionMax="26" xr10:uidLastSave="{35B35D80-9608-4D88-86CD-CBE7194352EB}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1818,14 +1818,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>中国农业银行松江城西支行</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>6228480038816808471</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>车主</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1902,6 +1894,14 @@
   </si>
   <si>
     <t>到会股东数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>某某某某银行上海某某支行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>XXXXXXXXXXXXXXXXXXX</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3051,8 +3051,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="J21" sqref="J21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8:D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3073,16 +3073,16 @@
     </row>
     <row r="2" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="19" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C2" s="18" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D2" s="20" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -3096,7 +3096,7 @@
         <v>4</v>
       </c>
       <c r="D3" s="21" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -3146,13 +3146,13 @@
         <v>9</v>
       </c>
       <c r="B7" s="26" t="s">
-        <v>107</v>
+        <v>127</v>
       </c>
       <c r="C7" s="27" t="s">
         <v>10</v>
       </c>
       <c r="D7" s="28" t="s">
-        <v>108</v>
+        <v>128</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -3168,13 +3168,13 @@
         <v>12</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C9" s="18" t="s">
         <v>15</v>
       </c>
       <c r="D9" s="21" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -3182,13 +3182,13 @@
         <v>13</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C10" s="18" t="s">
         <v>14</v>
       </c>
       <c r="D10" s="20" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -3196,13 +3196,13 @@
         <v>32</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C11" s="18" t="s">
         <v>16</v>
       </c>
       <c r="D11" s="20" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -3282,7 +3282,7 @@
         <v>18</v>
       </c>
       <c r="B17" s="34" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C17" s="35" t="s">
         <v>49</v>
@@ -3304,13 +3304,13 @@
         <v>11</v>
       </c>
       <c r="B19" s="62" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C19" s="61" t="s">
         <v>83</v>
       </c>
       <c r="D19" s="69" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -3321,7 +3321,7 @@
         <v>25569</v>
       </c>
       <c r="C20" s="61" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D20" s="70">
         <v>25569</v>
@@ -3332,7 +3332,7 @@
         <v>57</v>
       </c>
       <c r="B21" s="65" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C21" s="61" t="s">
         <v>29</v>
@@ -3410,7 +3410,7 @@
         <v>106</v>
       </c>
       <c r="B26" s="85">
-        <f>IF(rpt_PaymentMethod="先息后本",EDATE(rpt_LoanDate,1),EDATE(rpt_LoanDate,1)-1)</f>
+        <f>IF(rpt_PaymentMethod="先息后本",rpt_LoanDate,EDATE(rpt_LoanDate,1)-1)</f>
         <v>25599</v>
       </c>
       <c r="C26" s="59" t="s">
@@ -3493,38 +3493,38 @@
         <v>37</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C32" s="18" t="s">
         <v>38</v>
       </c>
       <c r="D32" s="21" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="19" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C33" s="18" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D33" s="21" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A34" s="33" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B34" s="34">
         <v>1</v>
       </c>
       <c r="C34" s="35" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D34" s="36">
         <v>1</v>
@@ -3543,7 +3543,7 @@
         <v>66</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C36" s="12" t="s">
         <v>70</v>
